--- a/data/trans_bre/P2A_lim_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P2A_lim_R-Estudios-trans_bre.xlsx
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,44</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,55%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,67%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,48%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,54%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,46; 3,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,25; 3,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,84; 7,71</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,11; 5,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,2; 35,26</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,47; 21,03</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,25; 80,82</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,88; 25,04</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,85</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,27</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,6%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,19%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>75,14%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,13; 2,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,03; 3,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,59; 1,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,65; 34,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,17; 49,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,41; 56,65</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,09; 28,19</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,83; 339,06</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,62</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,31%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>51,2%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,44%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,64%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,91; 5,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,89; 6,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,24; 3,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,59; 1,68</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,46; 212,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,45; 183,75</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,77; 100,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,75; 24,28</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,96</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,92%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,78%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,57%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,11; 2,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,45; 3,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,4; 3,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,26; 25,75</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,62; 45,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,35; 40,5</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,18; 48,02</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,94; 220,24</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2A_lim_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P2A_lim_R-Estudios-trans_bre.xlsx
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>-0,28</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,44</t>
+          <t>4,48</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,41</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>9,55%</t>
+          <t>9,27%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,67%</t>
+          <t>-1,77%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>40,48%</t>
+          <t>40,72%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>5,54%</t>
+          <t>5,26%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 3,44</t>
+          <t>-1,8; 3,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 3,0</t>
+          <t>-3,49; 2,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,84; 7,71</t>
+          <t>0,99; 7,71</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 5,67</t>
+          <t>-2,96; 5,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-11,2; 35,26</t>
+          <t>-14,55; 33,81</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-18,47; 21,03</t>
+          <t>-18,96; 20,53</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,25; 80,82</t>
+          <t>7,09; 82,01</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-10,88; 25,04</t>
+          <t>-9,83; 23,74</t>
         </is>
       </c>
     </row>
@@ -730,32 +730,32 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,27</t>
+          <t>8,29</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>8,6%</t>
+          <t>8,57%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>25,19%</t>
+          <t>25,18%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>75,14%</t>
+          <t>74,89%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 2,1</t>
+          <t>-1,06; 2,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,03; 3,68</t>
+          <t>-0,04; 3,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 1,55</t>
+          <t>-1,41; 1,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 34,86</t>
+          <t>-0,94; 33,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-20,17; 49,46</t>
+          <t>-19,88; 49,89</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,41; 56,65</t>
+          <t>-0,57; 57,14</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-22,09; 28,19</t>
+          <t>-20,37; 30,62</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 339,06</t>
+          <t>-7,41; 364,8</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>2,02</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -830,17 +830,17 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,33</t>
+          <t>-1,36</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>55,31%</t>
+          <t>54,74%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -850,12 +850,12 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>18,44%</t>
+          <t>17,7%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-14,64%</t>
+          <t>-14,8%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 5,02</t>
+          <t>-0,57; 5,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 6,44</t>
+          <t>-0,87; 6,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 3,03</t>
+          <t>-1,73; 3,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 1,68</t>
+          <t>-4,59; 1,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-19,46; 212,48</t>
+          <t>-15,37; 200,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-15,45; 183,75</t>
+          <t>-16,37; 181,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-39,77; 100,91</t>
+          <t>-34,52; 114,11</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-40,75; 24,28</t>
+          <t>-40,06; 24,45</t>
         </is>
       </c>
     </row>
@@ -920,7 +920,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -930,7 +930,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,68</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -940,22 +940,22 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>20,92%</t>
+          <t>20,73%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>20,78%</t>
+          <t>20,74%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>24,0%</t>
+          <t>23,63%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>46,57%</t>
+          <t>46,27%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,11; 2,69</t>
+          <t>0,07; 2,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,45; 3,58</t>
+          <t>0,27; 3,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,4; 3,09</t>
+          <t>0,44; 3,1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,26; 25,75</t>
+          <t>0,21; 19,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,62; 45,4</t>
+          <t>0,46; 44,83</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,35; 40,5</t>
+          <t>2,52; 39,86</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,18; 48,02</t>
+          <t>5,91; 49,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,94; 220,24</t>
+          <t>1,71; 184,6</t>
         </is>
       </c>
     </row>
